--- a/src/main/resources/xls/送货表调度.xlsx
+++ b/src/main/resources/xls/送货表调度.xlsx
@@ -48,8 +48,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -80,20 +80,62 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,6 +149,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -114,10 +201,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,126 +243,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -257,19 +257,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,163 +419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +448,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,21 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,22 +518,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,197 +548,179 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,7 +729,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -745,7 +745,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1122,7 +1121,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
   </cols>
@@ -1170,148 +1171,148 @@
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" ht="14.25" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" ht="14.25" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" ht="14.25" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" ht="14.25" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" ht="14.25" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" ht="14.25" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" ht="14.25" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" ht="14.25" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" ht="14.25" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" ht="14.25" spans="1:6">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" ht="14.25" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" ht="14.25" spans="1:6">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" ht="14.25" spans="1:6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="3"/>
